--- a/SEStudy/Check1/ER図.xlsx
+++ b/SEStudy/Check1/ER図.xlsx
@@ -16,47 +16,47 @@
     <t>会員情報</t>
   </si>
   <si>
+    <t>カリキュラムデータ</t>
+  </si>
+  <si>
+    <t>カリキュラム</t>
+  </si>
+  <si>
     <t>会員ID</t>
   </si>
   <si>
+    <t>カリキュラムID</t>
+  </si>
+  <si>
     <t>メールアドレス</t>
   </si>
   <si>
+    <t>章項目</t>
+  </si>
+  <si>
     <t>企業コード</t>
   </si>
   <si>
+    <t>カリキュラム名</t>
+  </si>
+  <si>
     <t>パスワード</t>
   </si>
   <si>
+    <t>進捗確認判定用</t>
+  </si>
+  <si>
+    <t>開放カリキュラム</t>
+  </si>
+  <si>
     <t>名前</t>
-  </si>
-  <si>
-    <t>カリキュラムデータ</t>
-  </si>
-  <si>
-    <t>カリキュラム</t>
-  </si>
-  <si>
-    <t>カリキュラムID</t>
-  </si>
-  <si>
-    <t>章項目</t>
-  </si>
-  <si>
-    <t>カリキュラム名</t>
-  </si>
-  <si>
-    <t>進捗確認判定用</t>
-  </si>
-  <si>
-    <t>開放カリキュラム</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="3">
+  <fonts count="2">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -64,9 +64,6 @@
     </font>
     <font>
       <color theme="1"/>
-      <name val="Arial"/>
-    </font>
-    <font>
       <name val="Arial"/>
     </font>
   </fonts>
@@ -130,24 +127,21 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
     </xf>
     <xf borderId="2" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="bottom"/>
@@ -173,10 +167,10 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer">
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>942975</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>866775</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>200025</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="981075" cy="1009650"/>
     <xdr:sp>
@@ -236,7 +230,7 @@
       <xdr:row>8</xdr:row>
       <xdr:rowOff>190500</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="1114425" cy="819150"/>
+    <xdr:ext cx="1162050" cy="819150"/>
     <xdr:sp>
       <xdr:nvSpPr>
         <xdr:cNvPr id="4" name="Shape 4"/>
@@ -459,6 +453,178 @@
     </xdr:grpSp>
     <xdr:clientData fLocksWithSheet="0"/>
   </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1076325</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="923925" cy="314325"/>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="2" name="Shape 2" title="図形描画"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="1603050" y="648950"/>
+          <a:ext cx="904775" cy="295175"/>
+          <a:chOff x="1603050" y="648950"/>
+          <a:chExt cx="904775" cy="295175"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:cxnSp>
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="10" name="Shape 10"/>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="1603050" y="786775"/>
+            <a:ext cx="894900" cy="9900"/>
+          </a:xfrm>
+          <a:prstGeom prst="straightConnector1">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln cap="flat" cmpd="sng" w="9525">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:prstDash val="solid"/>
+            <a:round/>
+            <a:headEnd len="med" w="med" type="none"/>
+            <a:tailEnd len="med" w="med" type="none"/>
+          </a:ln>
+        </xdr:spPr>
+      </xdr:cxnSp>
+      <xdr:cxnSp>
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="11" name="Shape 11"/>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm flipH="1" rot="10800000">
+            <a:off x="2193125" y="648950"/>
+            <a:ext cx="295200" cy="157500"/>
+          </a:xfrm>
+          <a:prstGeom prst="straightConnector1">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln cap="flat" cmpd="sng" w="9525">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:prstDash val="solid"/>
+            <a:round/>
+            <a:headEnd len="med" w="med" type="none"/>
+            <a:tailEnd len="med" w="med" type="none"/>
+          </a:ln>
+        </xdr:spPr>
+      </xdr:cxnSp>
+      <xdr:cxnSp>
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="12" name="Shape 12"/>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm rot="10800000">
+            <a:off x="2232425" y="796525"/>
+            <a:ext cx="275400" cy="147600"/>
+          </a:xfrm>
+          <a:prstGeom prst="straightConnector1">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln cap="flat" cmpd="sng" w="9525">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:prstDash val="solid"/>
+            <a:round/>
+            <a:headEnd len="med" w="med" type="none"/>
+            <a:tailEnd len="med" w="med" type="none"/>
+          </a:ln>
+        </xdr:spPr>
+      </xdr:cxnSp>
+      <xdr:sp>
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="13" name="Shape 13"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="1691550" y="712975"/>
+            <a:ext cx="137700" cy="157500"/>
+          </a:xfrm>
+          <a:prstGeom prst="ellipse">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr val="CFE2F3"/>
+          </a:solidFill>
+          <a:ln cap="flat" cmpd="sng" w="9525">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:prstDash val="solid"/>
+            <a:round/>
+            <a:headEnd len="sm" w="sm" type="none"/>
+            <a:tailEnd len="sm" w="sm" type="none"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:txBody>
+          <a:bodyPr anchorCtr="0" anchor="ctr" bIns="91425" lIns="91425" spcFirstLastPara="1" rIns="91425" wrap="square" tIns="91425">
+            <a:noAutofit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr indent="0" lvl="0" marL="0" rtl="0" algn="l">
+              <a:spcBef>
+                <a:spcPts val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPts val="0"/>
+              </a:spcAft>
+              <a:buNone/>
+            </a:pPr>
+            <a:r>
+              <a:t/>
+            </a:r>
+            <a:endParaRPr sz="1400"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:cxnSp>
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="14" name="Shape 14"/>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="1868600" y="654025"/>
+            <a:ext cx="0" cy="275400"/>
+          </a:xfrm>
+          <a:prstGeom prst="straightConnector1">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln cap="flat" cmpd="sng" w="9525">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:prstDash val="solid"/>
+            <a:round/>
+            <a:headEnd len="med" w="med" type="none"/>
+            <a:tailEnd len="med" w="med" type="none"/>
+          </a:ln>
+        </xdr:spPr>
+      </xdr:cxnSp>
+    </xdr:grpSp>
+    <xdr:clientData fLocksWithSheet="0"/>
+  </xdr:oneCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -669,80 +835,78 @@
     <col customWidth="1" min="3" max="3" width="18.86"/>
     <col customWidth="1" min="4" max="4" width="16.71"/>
     <col customWidth="1" min="5" max="5" width="17.0"/>
-    <col customWidth="1" min="6" max="6" width="21.0"/>
+    <col customWidth="1" min="6" max="7" width="13.43"/>
   </cols>
   <sheetData>
-    <row r="2">
-      <c r="B2" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
     <row r="3">
-      <c r="B3" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D3" s="3"/>
+      <c r="D3" s="1"/>
     </row>
     <row r="4">
-      <c r="B4" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D4" s="3"/>
+      <c r="D4" s="1"/>
     </row>
     <row r="5">
-      <c r="B5" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D5" s="3"/>
+      <c r="D5" s="1"/>
     </row>
     <row r="6">
-      <c r="B6" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D6" s="5"/>
+      <c r="D6" s="2"/>
     </row>
-    <row r="7">
-      <c r="B7" s="4" t="s">
-        <v>5</v>
+    <row r="8">
+      <c r="G8" s="3" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="9">
-      <c r="C9" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>7</v>
+      <c r="C9" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="10">
-      <c r="C10" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>8</v>
+      <c r="C10" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="11">
-      <c r="C11" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>1</v>
+      <c r="C11" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="12">
-      <c r="C12" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>10</v>
+      <c r="C12" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="13">
-      <c r="C13" s="9" t="s">
+      <c r="C13" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E13" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E13" s="4" t="s">
+      <c r="G13" s="1" t="s">
         <v>12</v>
       </c>
     </row>
